--- a/Code/Results/Cases/Case_7_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_7/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.39549969417819</v>
+        <v>24.39549969417821</v>
       </c>
       <c r="C2">
-        <v>17.68584438955772</v>
+        <v>17.68584438955775</v>
       </c>
       <c r="D2">
-        <v>3.326566922601822</v>
+        <v>3.32656692260184</v>
       </c>
       <c r="E2">
-        <v>6.851360984015463</v>
+        <v>6.851360984015447</v>
       </c>
       <c r="F2">
-        <v>64.42041434982386</v>
+        <v>64.42041434982417</v>
       </c>
       <c r="G2">
-        <v>2.085527756608229</v>
+        <v>2.085527756608769</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.325939295862287</v>
+        <v>7.325939295862289</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.58715488622958</v>
+        <v>22.58715488622956</v>
       </c>
       <c r="C3">
-        <v>16.3450794543717</v>
+        <v>16.34507945437163</v>
       </c>
       <c r="D3">
-        <v>3.142545918724141</v>
+        <v>3.14254591872415</v>
       </c>
       <c r="E3">
-        <v>6.682178172299638</v>
+        <v>6.682178172299606</v>
       </c>
       <c r="F3">
-        <v>60.90180990660338</v>
+        <v>60.90180990660329</v>
       </c>
       <c r="G3">
-        <v>2.102142129754263</v>
+        <v>2.10214212975413</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.149040377697974</v>
+        <v>7.149040377697911</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.4391242892268</v>
+        <v>21.43912428922681</v>
       </c>
       <c r="C4">
-        <v>15.49151845811554</v>
+        <v>15.49151845811548</v>
       </c>
       <c r="D4">
-        <v>3.028329578806305</v>
+        <v>3.028329578806308</v>
       </c>
       <c r="E4">
-        <v>6.585352673984521</v>
+        <v>6.585352673984477</v>
       </c>
       <c r="F4">
-        <v>58.71695283085542</v>
+        <v>58.71695283085548</v>
       </c>
       <c r="G4">
-        <v>2.112452945414736</v>
+        <v>2.112452945414733</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.01340318032872</v>
+        <v>21.01340318032875</v>
       </c>
       <c r="C5">
-        <v>15.13577606984793</v>
+        <v>15.1357760698479</v>
       </c>
       <c r="D5">
-        <v>2.981419424807776</v>
+        <v>2.981419424807721</v>
       </c>
       <c r="E5">
-        <v>6.54762403400313</v>
+        <v>6.547624034003249</v>
       </c>
       <c r="F5">
-        <v>57.82051075630135</v>
+        <v>57.82051075630091</v>
       </c>
       <c r="G5">
-        <v>2.116689964252453</v>
+        <v>2.116689964252718</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.004277455437448</v>
+        <v>7.00427745543749</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.94232180762636</v>
+        <v>20.94232180762635</v>
       </c>
       <c r="C6">
-        <v>15.07622055640331</v>
+        <v>15.07622055640347</v>
       </c>
       <c r="D6">
-        <v>2.973606458389936</v>
+        <v>2.973606458389841</v>
       </c>
       <c r="E6">
-        <v>6.541462399881697</v>
+        <v>6.541462399881796</v>
       </c>
       <c r="F6">
-        <v>57.67129540419529</v>
+        <v>57.67129540419522</v>
       </c>
       <c r="G6">
-        <v>2.117395857673202</v>
+        <v>2.117395857672808</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.997528493730923</v>
+        <v>6.997528493730916</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.43340913310334</v>
+        <v>21.43340913310335</v>
       </c>
       <c r="C7">
-        <v>15.486753144726</v>
+        <v>15.48675314472606</v>
       </c>
       <c r="D7">
-        <v>3.027698481878569</v>
+        <v>3.027698481878534</v>
       </c>
       <c r="E7">
-        <v>6.584836909258331</v>
+        <v>6.584836909258304</v>
       </c>
       <c r="F7">
-        <v>58.70488752950709</v>
+        <v>58.70488752950712</v>
       </c>
       <c r="G7">
-        <v>2.112509934929775</v>
+        <v>2.112509934929902</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.044787279358995</v>
+        <v>7.04478727935899</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.78041530250786</v>
+        <v>23.78041530250784</v>
       </c>
       <c r="C8">
-        <v>17.22965132800612</v>
+        <v>17.22965132800623</v>
       </c>
       <c r="D8">
-        <v>3.263332520582338</v>
+        <v>3.263332520582367</v>
       </c>
       <c r="E8">
-        <v>6.791533545124258</v>
+        <v>6.791533545124291</v>
       </c>
       <c r="F8">
-        <v>63.21221099297553</v>
+        <v>63.21221099297548</v>
       </c>
       <c r="G8">
-        <v>2.091238624627597</v>
+        <v>2.091238624627337</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.263890419365995</v>
+        <v>7.263890419366039</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.07997510026793</v>
+        <v>28.07997510026791</v>
       </c>
       <c r="C9">
-        <v>20.42341241651332</v>
+        <v>20.42341241651322</v>
       </c>
       <c r="D9">
-        <v>3.71901575696753</v>
+        <v>3.719015756967529</v>
       </c>
       <c r="E9">
-        <v>7.255374318380972</v>
+        <v>7.255374318381006</v>
       </c>
       <c r="F9">
-        <v>71.87090680830588</v>
+        <v>71.87090680830582</v>
       </c>
       <c r="G9">
-        <v>2.049986577375203</v>
+        <v>2.04998657737493</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.735408052162547</v>
+        <v>7.735408052162549</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.08242647032321</v>
+        <v>31.08242647032308</v>
       </c>
       <c r="C10">
-        <v>22.66293889465786</v>
+        <v>22.66293889465777</v>
       </c>
       <c r="D10">
-        <v>4.055948236965491</v>
+        <v>4.055948236965454</v>
       </c>
       <c r="E10">
-        <v>7.636655052414314</v>
+        <v>7.636655052414286</v>
       </c>
       <c r="F10">
-        <v>78.16760248679084</v>
+        <v>78.1676024867905</v>
       </c>
       <c r="G10">
-        <v>2.019273483047873</v>
+        <v>2.019273483047868</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.112504335904855</v>
+        <v>8.112504335904848</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.42475544374039</v>
+        <v>32.42475544374044</v>
       </c>
       <c r="C11">
-        <v>23.66747510607611</v>
+        <v>23.66747510607631</v>
       </c>
       <c r="D11">
-        <v>4.21154532172054</v>
+        <v>4.211545321720513</v>
       </c>
       <c r="E11">
-        <v>7.820519462515501</v>
+        <v>7.820519462515488</v>
       </c>
       <c r="F11">
-        <v>81.03661712272813</v>
+        <v>81.03661712272809</v>
       </c>
       <c r="G11">
-        <v>2.005015573879598</v>
+        <v>2.005015573879688</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.292365676361301</v>
+        <v>8.292365676361314</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.93082496845201</v>
+        <v>32.93082496845203</v>
       </c>
       <c r="C12">
-        <v>24.0467960727882</v>
+        <v>24.04679607278829</v>
       </c>
       <c r="D12">
-        <v>4.271005497818862</v>
+        <v>4.271005497818943</v>
       </c>
       <c r="E12">
-        <v>7.891834972870628</v>
+        <v>7.89183497287064</v>
       </c>
       <c r="F12">
-        <v>82.12599560439359</v>
+        <v>82.12599560439369</v>
       </c>
       <c r="G12">
-        <v>1.999554066371882</v>
+        <v>1.999554066372039</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.361861044651105</v>
+        <v>8.361861044651121</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.82191233280151</v>
+        <v>32.8219123328015</v>
       </c>
       <c r="C13">
-        <v>23.96513225641999</v>
+        <v>23.96513225642006</v>
       </c>
       <c r="D13">
-        <v>4.258171887974826</v>
+        <v>4.258171887974875</v>
       </c>
       <c r="E13">
-        <v>7.876397007580326</v>
+        <v>7.876397007580313</v>
       </c>
       <c r="F13">
-        <v>81.89120325082918</v>
+        <v>81.89120325082926</v>
       </c>
       <c r="G13">
-        <v>2.000733463778298</v>
+        <v>2.000733463778432</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.346828713427714</v>
+        <v>8.346828713427703</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.46642747700106</v>
+        <v>32.46642747700096</v>
       </c>
       <c r="C14">
-        <v>23.69869719387714</v>
+        <v>23.69869719387722</v>
       </c>
       <c r="D14">
-        <v>4.216424985454055</v>
+        <v>4.216424985454095</v>
       </c>
       <c r="E14">
-        <v>7.826351440586767</v>
+        <v>7.826351440586778</v>
       </c>
       <c r="F14">
-        <v>81.12616625031738</v>
+        <v>81.12616625031735</v>
       </c>
       <c r="G14">
-        <v>2.004567640951963</v>
+        <v>2.004567640951721</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.298054042757476</v>
+        <v>8.298054042757496</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.2484294191302</v>
+        <v>32.24842941913029</v>
       </c>
       <c r="C15">
-        <v>23.53539091177285</v>
+        <v>23.53539091177286</v>
       </c>
       <c r="D15">
-        <v>4.190930948536892</v>
+        <v>4.190930948536932</v>
       </c>
       <c r="E15">
-        <v>7.795923923485407</v>
+        <v>7.795923923485382</v>
       </c>
       <c r="F15">
-        <v>80.6580225834098</v>
+        <v>80.65802258340952</v>
       </c>
       <c r="G15">
-        <v>2.006907353293115</v>
+        <v>2.006907353292977</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.268365192543783</v>
+        <v>8.268365192543781</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.99432035058513</v>
+        <v>30.99432035058508</v>
       </c>
       <c r="C16">
-        <v>22.59708152791747</v>
+        <v>22.59708152791757</v>
       </c>
       <c r="D16">
-        <v>4.045842736725537</v>
+        <v>4.045842736725506</v>
       </c>
       <c r="E16">
-        <v>7.624863787714004</v>
+        <v>7.624863787713975</v>
       </c>
       <c r="F16">
-        <v>77.98037756657207</v>
+        <v>77.98037756657182</v>
       </c>
       <c r="G16">
-        <v>2.020197806975919</v>
+        <v>2.020197806976031</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.100932358021648</v>
+        <v>8.100932358021586</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.21967299643578</v>
+        <v>30.21967299643577</v>
       </c>
       <c r="C17">
-        <v>22.01843491455726</v>
+        <v>22.01843491455727</v>
       </c>
       <c r="D17">
-        <v>3.957561575381479</v>
+        <v>3.95756157538153</v>
       </c>
       <c r="E17">
-        <v>7.522710890762538</v>
+        <v>7.522710890762495</v>
       </c>
       <c r="F17">
-        <v>76.34031935365846</v>
+        <v>76.34031935365878</v>
       </c>
       <c r="G17">
-        <v>2.028264109989072</v>
+        <v>2.028264109989081</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.00046695289592</v>
+        <v>8.000466952895923</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.77182208955496</v>
+        <v>29.77182208955513</v>
       </c>
       <c r="C18">
-        <v>21.68420279204372</v>
+        <v>21.68420279204384</v>
       </c>
       <c r="D18">
-        <v>3.906988572048874</v>
+        <v>3.906988572048868</v>
       </c>
       <c r="E18">
-        <v>7.46492134887779</v>
+        <v>7.464921348877775</v>
       </c>
       <c r="F18">
-        <v>75.39726187554923</v>
+        <v>75.39726187554948</v>
       </c>
       <c r="G18">
-        <v>2.032878189920086</v>
+        <v>2.03287818991996</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.61976305480275</v>
+        <v>29.6197630548029</v>
       </c>
       <c r="C19">
-        <v>21.57076940217669</v>
+        <v>21.57076940217694</v>
       </c>
       <c r="D19">
-        <v>3.889895017895926</v>
+        <v>3.889895017895975</v>
       </c>
       <c r="E19">
-        <v>7.445515816839674</v>
+        <v>7.445515816839597</v>
       </c>
       <c r="F19">
-        <v>75.07794526441968</v>
+        <v>75.07794526442028</v>
       </c>
       <c r="G19">
-        <v>2.034436637581058</v>
+        <v>2.034436637581171</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>7.924273243290177</v>
+        <v>7.924273243290136</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.30236559047396</v>
+        <v>30.30236559047394</v>
       </c>
       <c r="C20">
-        <v>22.08017243896162</v>
+        <v>22.08017243896181</v>
       </c>
       <c r="D20">
-        <v>3.966936820989268</v>
+        <v>3.966936820989199</v>
       </c>
       <c r="E20">
-        <v>7.533484049949656</v>
+        <v>7.533484049949671</v>
       </c>
       <c r="F20">
-        <v>76.51486508226235</v>
+        <v>76.51486508226239</v>
       </c>
       <c r="G20">
-        <v>2.027408209862271</v>
+        <v>2.027408209862537</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.011080885218128</v>
+        <v>8.011080885218131</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.57089234420544</v>
+        <v>32.57089234420537</v>
       </c>
       <c r="C21">
-        <v>23.77697586872367</v>
+        <v>23.77697586872368</v>
       </c>
       <c r="D21">
-        <v>4.228670543762047</v>
+        <v>4.228670543761953</v>
       </c>
       <c r="E21">
-        <v>7.84100333092532</v>
+        <v>7.841003330925355</v>
       </c>
       <c r="F21">
-        <v>81.35077441996916</v>
+        <v>81.3507744199687</v>
       </c>
       <c r="G21">
-        <v>2.003443335784338</v>
+        <v>2.00344333578448</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.04119129708086</v>
+        <v>34.04119129708092</v>
       </c>
       <c r="C22">
-        <v>24.88030750951492</v>
+        <v>24.88030750951495</v>
       </c>
       <c r="D22">
-        <v>4.403006120950939</v>
+        <v>4.403006120951</v>
       </c>
       <c r="E22">
-        <v>8.051973779427815</v>
+        <v>8.051973779427833</v>
       </c>
       <c r="F22">
-        <v>84.53011098588399</v>
+        <v>84.53011098588431</v>
       </c>
       <c r="G22">
         <v>1.987403754772853</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.517441331539796</v>
+        <v>8.517441331539805</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.25713743839172</v>
+        <v>33.25713743839182</v>
       </c>
       <c r="C23">
-        <v>24.29156601807756</v>
+        <v>24.29156601807779</v>
       </c>
       <c r="D23">
-        <v>4.309577897626444</v>
+        <v>4.309577897626562</v>
       </c>
       <c r="E23">
-        <v>7.93838025459482</v>
+        <v>7.938380254594743</v>
       </c>
       <c r="F23">
-        <v>82.83056524532279</v>
+        <v>82.83056524532374</v>
       </c>
       <c r="G23">
-        <v>1.996007268879953</v>
+        <v>1.996007268879931</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.407146006337314</v>
+        <v>8.407146006337332</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.26498812470851</v>
+        <v>30.26498812470846</v>
       </c>
       <c r="C24">
-        <v>22.05226583481515</v>
+        <v>22.05226583481507</v>
       </c>
       <c r="D24">
-        <v>3.962697723365214</v>
+        <v>3.962697723365296</v>
       </c>
       <c r="E24">
-        <v>7.528610591905823</v>
+        <v>7.528610591905852</v>
       </c>
       <c r="F24">
-        <v>76.43595363818503</v>
+        <v>76.43595363818486</v>
       </c>
       <c r="G24">
-        <v>2.02779523349488</v>
+        <v>2.027795233494631</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.006280026441265</v>
+        <v>8.006280026441294</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.94723478706929</v>
+        <v>26.94723478706926</v>
       </c>
       <c r="C25">
-        <v>19.58073189533232</v>
+        <v>19.58073189533245</v>
       </c>
       <c r="D25">
-        <v>3.595886065666863</v>
+        <v>3.59588606566679</v>
       </c>
       <c r="E25">
-        <v>7.123211475614936</v>
+        <v>7.123211475615012</v>
       </c>
       <c r="F25">
-        <v>69.5445564408321</v>
+        <v>69.54455644083151</v>
       </c>
       <c r="G25">
-        <v>2.061160397892714</v>
+        <v>2.061160397892845</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.602914247501643</v>
+        <v>7.60291424750163</v>
       </c>
       <c r="K25">
         <v>0</v>

--- a/Code/Results/Cases/Case_7_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_7/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,43 +415,46 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.39549969417821</v>
+        <v>24.51545801297722</v>
       </c>
       <c r="C2">
-        <v>17.68584438955775</v>
+        <v>19.5364528743202</v>
       </c>
       <c r="D2">
-        <v>3.32656692260184</v>
+        <v>7.378287794504397</v>
       </c>
       <c r="E2">
-        <v>6.851360984015447</v>
+        <v>12.15992923499422</v>
       </c>
       <c r="F2">
-        <v>64.42041434982417</v>
+        <v>27.33957944553374</v>
       </c>
       <c r="G2">
-        <v>2.085527756608769</v>
+        <v>32.67258670148207</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>2.098455131445884</v>
       </c>
       <c r="J2">
-        <v>7.325939295862289</v>
+        <v>10.65356727895663</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.79084138542781</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>7.563241555962088</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -462,43 +465,46 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.58715488622956</v>
+        <v>22.87445881323437</v>
       </c>
       <c r="C3">
-        <v>16.34507945437163</v>
+        <v>18.22493464509924</v>
       </c>
       <c r="D3">
-        <v>3.14254591872415</v>
+        <v>7.015458182419679</v>
       </c>
       <c r="E3">
-        <v>6.682178172299606</v>
+        <v>11.55310761783332</v>
       </c>
       <c r="F3">
-        <v>60.90180990660329</v>
+        <v>26.46727354125896</v>
       </c>
       <c r="G3">
-        <v>2.10214212975413</v>
+        <v>31.4404953877016</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
+        <v>1.781300168251167</v>
       </c>
       <c r="J3">
-        <v>7.149040377697911</v>
+        <v>10.55489364815159</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>13.93762407356203</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>7.305216327056449</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -509,43 +515,46 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.43912428922681</v>
+        <v>21.80743814388878</v>
       </c>
       <c r="C4">
-        <v>15.49151845811548</v>
+        <v>17.37235966963268</v>
       </c>
       <c r="D4">
-        <v>3.028329578806308</v>
+        <v>6.783332293037334</v>
       </c>
       <c r="E4">
-        <v>6.585352673984477</v>
+        <v>11.16484995701398</v>
       </c>
       <c r="F4">
-        <v>58.71695283085548</v>
+        <v>25.93824306949023</v>
       </c>
       <c r="G4">
-        <v>2.112452945414733</v>
+        <v>30.69763028314613</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
+        <v>1.580551782587945</v>
       </c>
       <c r="J4">
-        <v>7.045345891746805</v>
+        <v>10.50243772304693</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.04387948761984</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7.141862811814076</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -556,43 +565,46 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.01340318032875</v>
+        <v>21.3575773877429</v>
       </c>
       <c r="C5">
-        <v>15.1357760698479</v>
+        <v>17.01295860418228</v>
       </c>
       <c r="D5">
-        <v>2.981419424807721</v>
+        <v>6.68643974617321</v>
       </c>
       <c r="E5">
-        <v>6.547624034003249</v>
+        <v>11.00275746281703</v>
       </c>
       <c r="F5">
-        <v>57.82051075630091</v>
+        <v>25.72450940542336</v>
       </c>
       <c r="G5">
-        <v>2.116689964252718</v>
+        <v>30.39865253063154</v>
       </c>
       <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
+        <v>1.625504014368981</v>
       </c>
       <c r="J5">
-        <v>7.00427745543749</v>
+        <v>10.48303665484417</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.09097431169416</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>7.074085543467433</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -603,43 +615,46 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.94232180762635</v>
+        <v>21.28196721549932</v>
       </c>
       <c r="C6">
-        <v>15.07622055640347</v>
+        <v>16.9525552057344</v>
       </c>
       <c r="D6">
-        <v>2.973606458389841</v>
+        <v>6.670213675426623</v>
       </c>
       <c r="E6">
-        <v>6.541462399881796</v>
+        <v>10.97561039594518</v>
       </c>
       <c r="F6">
-        <v>57.67129540419522</v>
+        <v>25.68913682350766</v>
       </c>
       <c r="G6">
-        <v>2.117395857672808</v>
+        <v>30.34924317473509</v>
       </c>
       <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
+        <v>1.639785742031926</v>
       </c>
       <c r="J6">
-        <v>6.997528493730916</v>
+        <v>10.47993232848846</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.09901622499066</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>7.062759085793968</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -650,43 +665,46 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.43340913310335</v>
+        <v>21.80143218809671</v>
       </c>
       <c r="C7">
-        <v>15.48675314472606</v>
+        <v>17.36756122589247</v>
       </c>
       <c r="D7">
-        <v>3.027698481878534</v>
+        <v>6.782034799700118</v>
       </c>
       <c r="E7">
-        <v>6.584836909258304</v>
+        <v>11.16267950841253</v>
       </c>
       <c r="F7">
-        <v>58.70488752950712</v>
+        <v>25.93535282104931</v>
       </c>
       <c r="G7">
-        <v>2.112509934929902</v>
+        <v>30.69358257248539</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
+        <v>1.579433897710218</v>
       </c>
       <c r="J7">
-        <v>7.04478727935899</v>
+        <v>10.50216817002228</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.04449959370363</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>7.140953598478668</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -697,43 +715,46 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.78041530250784</v>
+        <v>23.96192031011641</v>
       </c>
       <c r="C8">
-        <v>17.22965132800623</v>
+        <v>19.09401087837443</v>
       </c>
       <c r="D8">
-        <v>3.263332520582367</v>
+        <v>7.255150915656588</v>
       </c>
       <c r="E8">
-        <v>6.791533545124291</v>
+        <v>11.95398222583572</v>
       </c>
       <c r="F8">
-        <v>63.21221099297548</v>
+        <v>27.03756107216106</v>
       </c>
       <c r="G8">
-        <v>2.091238624627337</v>
+        <v>32.24511366526634</v>
       </c>
       <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
+        <v>1.990322434619404</v>
       </c>
       <c r="J8">
-        <v>7.263890419366039</v>
+        <v>10.617816576452</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>13.83794243693671</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>7.475312412777805</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -744,43 +765,46 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.07997510026791</v>
+        <v>27.73145230526541</v>
       </c>
       <c r="C9">
-        <v>20.42341241651322</v>
+        <v>22.10790767480108</v>
       </c>
       <c r="D9">
-        <v>3.719015756967529</v>
+        <v>8.107141015463986</v>
       </c>
       <c r="E9">
-        <v>7.255374318381006</v>
+        <v>13.37947285287337</v>
       </c>
       <c r="F9">
-        <v>71.87090680830582</v>
+        <v>29.24307431910012</v>
       </c>
       <c r="G9">
-        <v>2.04998657737493</v>
+        <v>35.38325096185925</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
+        <v>2.750365805269895</v>
       </c>
       <c r="J9">
-        <v>7.735408052162549</v>
+        <v>10.91204365499078</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>13.57333548404435</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>8.090920418026325</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -791,43 +815,46 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.08242647032308</v>
+        <v>30.21770746736646</v>
       </c>
       <c r="C10">
-        <v>22.66293889465777</v>
+        <v>24.05406191010606</v>
       </c>
       <c r="D10">
-        <v>4.055948236965454</v>
+        <v>8.618975511648383</v>
       </c>
       <c r="E10">
-        <v>7.636655052414286</v>
+        <v>14.13647021948194</v>
       </c>
       <c r="F10">
-        <v>78.1676024867905</v>
+        <v>30.58564672710923</v>
       </c>
       <c r="G10">
-        <v>2.019273483047868</v>
+        <v>37.3357868830233</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
+        <v>3.263895908417366</v>
       </c>
       <c r="J10">
-        <v>8.112504335904848</v>
+        <v>11.0908958815835</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>13.34931365765369</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>8.405849496642979</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -838,43 +865,46 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.42475544374044</v>
+        <v>31.24966173611</v>
       </c>
       <c r="C11">
-        <v>23.66747510607631</v>
+        <v>24.49352864768763</v>
       </c>
       <c r="D11">
-        <v>4.211545321720513</v>
+        <v>8.274961666567854</v>
       </c>
       <c r="E11">
-        <v>7.820519462515488</v>
+        <v>12.69214388996816</v>
       </c>
       <c r="F11">
-        <v>81.03661712272809</v>
+        <v>28.65261921279416</v>
       </c>
       <c r="G11">
-        <v>2.005015573879688</v>
+        <v>34.8175776822097</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
+        <v>3.894291903864358</v>
       </c>
       <c r="J11">
-        <v>8.292365676361314</v>
+        <v>10.47065253738993</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>12.12729142082835</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.633741848596911</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -885,43 +915,46 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.93082496845203</v>
+        <v>31.61664019933246</v>
       </c>
       <c r="C12">
-        <v>24.04679607278829</v>
+        <v>24.46648736080929</v>
       </c>
       <c r="D12">
-        <v>4.271005497818943</v>
+        <v>7.879638971451389</v>
       </c>
       <c r="E12">
-        <v>7.89183497287064</v>
+        <v>11.37973219196424</v>
       </c>
       <c r="F12">
-        <v>82.12599560439369</v>
+        <v>26.70406645673715</v>
       </c>
       <c r="G12">
-        <v>1.999554066372039</v>
+        <v>32.2295497364994</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
+        <v>4.890784208516235</v>
       </c>
       <c r="J12">
-        <v>8.361861044651121</v>
+        <v>9.90017281589175</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>11.15352829229819</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.000552251771507</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -932,43 +965,46 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.8219123328015</v>
+        <v>31.50681658815724</v>
       </c>
       <c r="C13">
-        <v>23.96513225642006</v>
+        <v>24.07877044419532</v>
       </c>
       <c r="D13">
-        <v>4.258171887974875</v>
+        <v>7.411524521314199</v>
       </c>
       <c r="E13">
-        <v>7.876397007580313</v>
+        <v>10.08755031380755</v>
       </c>
       <c r="F13">
-        <v>81.89120325082926</v>
+        <v>24.5840400569776</v>
       </c>
       <c r="G13">
-        <v>2.000733463778432</v>
+        <v>29.35138162235512</v>
       </c>
       <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
+        <v>6.023107960684674</v>
       </c>
       <c r="J13">
-        <v>8.346828713427703</v>
+        <v>9.329539318703619</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>10.3295430861811</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>6.452084993909445</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -979,43 +1015,46 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.46642747700096</v>
+        <v>31.21353566979944</v>
       </c>
       <c r="C14">
-        <v>23.69869719387722</v>
+        <v>23.63920024539087</v>
       </c>
       <c r="D14">
-        <v>4.216424985454095</v>
+        <v>7.047552652662145</v>
       </c>
       <c r="E14">
-        <v>7.826351440586778</v>
+        <v>9.21982149766559</v>
       </c>
       <c r="F14">
-        <v>81.12616625031735</v>
+        <v>23.01031322043536</v>
       </c>
       <c r="G14">
-        <v>2.004567640951721</v>
+        <v>27.17470126009595</v>
       </c>
       <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
+        <v>6.870230095571032</v>
       </c>
       <c r="J14">
-        <v>8.298054042757496</v>
+        <v>8.93276248153442</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>9.845906014213293</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>6.136560560826243</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1026,43 +1065,46 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.24842941913029</v>
+        <v>31.03882431720843</v>
       </c>
       <c r="C15">
-        <v>23.53539091177286</v>
+        <v>23.45324206603049</v>
       </c>
       <c r="D15">
-        <v>4.190930948536932</v>
+        <v>6.942161394077348</v>
       </c>
       <c r="E15">
-        <v>7.795923923485382</v>
+        <v>9.004189403503382</v>
       </c>
       <c r="F15">
-        <v>80.65802258340952</v>
+        <v>22.59327139136368</v>
       </c>
       <c r="G15">
-        <v>2.006907353292977</v>
+        <v>26.58303547878513</v>
       </c>
       <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
+        <v>7.061255130340173</v>
       </c>
       <c r="J15">
-        <v>8.268365192543781</v>
+        <v>8.83816621464887</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>9.762929470748299</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>6.066535830566206</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1073,43 +1115,46 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.99432035058508</v>
+        <v>30.04146599066445</v>
       </c>
       <c r="C16">
-        <v>22.59708152791757</v>
+        <v>22.7071979268631</v>
       </c>
       <c r="D16">
-        <v>4.045842736725506</v>
+        <v>6.795161196878888</v>
       </c>
       <c r="E16">
-        <v>7.624863787713975</v>
+        <v>8.871738115418339</v>
       </c>
       <c r="F16">
-        <v>77.98037756657182</v>
+        <v>22.35577703132959</v>
       </c>
       <c r="G16">
-        <v>2.020197806976031</v>
+        <v>26.14358614924132</v>
       </c>
       <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+        <v>6.757422081425381</v>
       </c>
       <c r="J16">
-        <v>8.100932358021586</v>
+        <v>8.869550956092541</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>10.05283240935876</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>6.024110988374043</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1120,43 +1165,46 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.21967299643577</v>
+        <v>29.42240948610509</v>
       </c>
       <c r="C17">
-        <v>22.01843491455727</v>
+        <v>22.36817457065282</v>
       </c>
       <c r="D17">
-        <v>3.95756157538153</v>
+        <v>6.881354432650179</v>
       </c>
       <c r="E17">
-        <v>7.522710890762495</v>
+        <v>9.226597231704375</v>
       </c>
       <c r="F17">
-        <v>76.34031935365878</v>
+        <v>23.0348067532206</v>
       </c>
       <c r="G17">
-        <v>2.028264109989081</v>
+        <v>27.01818198105778</v>
       </c>
       <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
+        <v>6.018694305351039</v>
       </c>
       <c r="J17">
-        <v>8.000466952895923</v>
+        <v>9.105339364218606</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>10.51502622996872</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>6.145742218327556</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1167,43 +1215,46 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.77182208955513</v>
+        <v>29.073404270872</v>
       </c>
       <c r="C18">
-        <v>21.68420279204384</v>
+        <v>22.35246484274224</v>
       </c>
       <c r="D18">
-        <v>3.906988572048868</v>
+        <v>7.183800003073926</v>
       </c>
       <c r="E18">
-        <v>7.464921348877775</v>
+        <v>10.13101468055841</v>
       </c>
       <c r="F18">
-        <v>75.39726187554948</v>
+        <v>24.57211015994582</v>
       </c>
       <c r="G18">
-        <v>2.03287818991996</v>
+        <v>29.10154778581207</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
+        <v>4.878856016156503</v>
       </c>
       <c r="J18">
-        <v>7.943450804323096</v>
+        <v>9.542836585259019</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>11.2038205808915</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.501516322528285</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1214,43 +1265,46 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.6197630548029</v>
+        <v>28.97443036388043</v>
       </c>
       <c r="C19">
-        <v>21.57076940217694</v>
+        <v>22.599020225972</v>
       </c>
       <c r="D19">
-        <v>3.889895017895975</v>
+        <v>7.63970739944646</v>
       </c>
       <c r="E19">
-        <v>7.445515816839597</v>
+        <v>11.4956605520258</v>
       </c>
       <c r="F19">
-        <v>75.07794526442028</v>
+        <v>26.6746316245059</v>
       </c>
       <c r="G19">
-        <v>2.034436637581171</v>
+        <v>31.96613284584717</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
+        <v>3.70617950913597</v>
       </c>
       <c r="J19">
-        <v>7.924273243290136</v>
+        <v>10.11472936370543</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.07055756965626</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.113610053361061</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1261,43 +1315,46 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.30236559047394</v>
+        <v>29.58313553338358</v>
       </c>
       <c r="C20">
-        <v>22.08017243896181</v>
+        <v>23.55519889755629</v>
       </c>
       <c r="D20">
-        <v>3.966936820989199</v>
+        <v>8.484322543722374</v>
       </c>
       <c r="E20">
-        <v>7.533484049949671</v>
+        <v>13.93181529984816</v>
       </c>
       <c r="F20">
-        <v>76.51486508226239</v>
+        <v>30.21759405370672</v>
       </c>
       <c r="G20">
-        <v>2.027408209862537</v>
+        <v>36.8001810304015</v>
       </c>
       <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
+        <v>3.128665993611954</v>
       </c>
       <c r="J20">
-        <v>8.011080885218131</v>
+        <v>11.03703566028589</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>13.39477597410693</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>8.31928017595941</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1308,43 +1365,46 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.57089234420537</v>
+        <v>31.41232583967984</v>
       </c>
       <c r="C21">
-        <v>23.77697586872368</v>
+        <v>25.05310453306375</v>
       </c>
       <c r="D21">
-        <v>4.228670543761953</v>
+        <v>8.96542353056077</v>
       </c>
       <c r="E21">
-        <v>7.841003330925355</v>
+        <v>14.81785956278767</v>
       </c>
       <c r="F21">
-        <v>81.3507744199687</v>
+        <v>31.7102119149048</v>
       </c>
       <c r="G21">
-        <v>2.00344333578448</v>
+        <v>38.92659508095828</v>
       </c>
       <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
+        <v>3.547801787568347</v>
       </c>
       <c r="J21">
-        <v>8.312340945884856</v>
+        <v>11.31691113012918</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.46761748370928</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>8.72692082884234</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1355,43 +1415,46 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>34.04119129708092</v>
+        <v>32.55673506405864</v>
       </c>
       <c r="C22">
-        <v>24.88030750951495</v>
+        <v>25.96926337897905</v>
       </c>
       <c r="D22">
-        <v>4.403006120951</v>
+        <v>9.236766954839776</v>
       </c>
       <c r="E22">
-        <v>8.051973779427833</v>
+        <v>15.27331277564682</v>
       </c>
       <c r="F22">
-        <v>84.53011098588431</v>
+        <v>32.53513665739845</v>
       </c>
       <c r="G22">
-        <v>1.987403754772853</v>
+        <v>40.11702411309061</v>
       </c>
       <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
+        <v>3.807326014765601</v>
       </c>
       <c r="J22">
-        <v>8.517441331539805</v>
+        <v>11.46695831943789</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.47207929916621</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.930999330205216</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1402,43 +1465,46 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.25713743839182</v>
+        <v>31.95034868277347</v>
       </c>
       <c r="C23">
-        <v>24.29156601807779</v>
+        <v>25.48379023362385</v>
       </c>
       <c r="D23">
-        <v>4.309577897626562</v>
+        <v>9.09274290817576</v>
       </c>
       <c r="E23">
-        <v>7.938380254594743</v>
+        <v>15.0315192559566</v>
       </c>
       <c r="F23">
-        <v>82.83056524532374</v>
+        <v>32.09475055508832</v>
       </c>
       <c r="G23">
-        <v>1.996007268879931</v>
+        <v>39.48119837367496</v>
       </c>
       <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
+        <v>3.669112536676117</v>
       </c>
       <c r="J23">
-        <v>8.407146006337332</v>
+        <v>11.38601535175943</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.4673181494447</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>8.822506477529402</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1449,43 +1515,46 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.26498812470846</v>
+        <v>29.55623558610226</v>
       </c>
       <c r="C24">
-        <v>22.05226583481507</v>
+        <v>23.56769779913647</v>
       </c>
       <c r="D24">
-        <v>3.962697723365296</v>
+        <v>8.529730542846712</v>
       </c>
       <c r="E24">
-        <v>7.528610591905852</v>
+        <v>14.0872966006988</v>
       </c>
       <c r="F24">
-        <v>76.43595363818486</v>
+        <v>30.42961808790904</v>
       </c>
       <c r="G24">
-        <v>2.027795233494631</v>
+        <v>37.08392333152097</v>
       </c>
       <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
+        <v>3.138685974173626</v>
       </c>
       <c r="J24">
-        <v>8.006280026441294</v>
+        <v>11.09801147016394</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>13.49944978159813</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>8.402197391069608</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1496,43 +1565,46 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.94723478706926</v>
+        <v>26.76105838463237</v>
       </c>
       <c r="C25">
-        <v>19.58073189533245</v>
+        <v>21.33182934815055</v>
       </c>
       <c r="D25">
-        <v>3.59588606566679</v>
+        <v>7.884950551365026</v>
       </c>
       <c r="E25">
-        <v>7.123211475615012</v>
+        <v>13.00755938721402</v>
       </c>
       <c r="F25">
-        <v>69.54455644083151</v>
+        <v>28.64274847219623</v>
       </c>
       <c r="G25">
-        <v>2.061160397892845</v>
+        <v>34.52570367118938</v>
       </c>
       <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
+        <v>2.549350246427216</v>
       </c>
       <c r="J25">
-        <v>7.60291424750163</v>
+        <v>10.82482354605087</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>13.62806465999331</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.928786897040927</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,6 +1613,12 @@
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_7_7/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_7_7/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,46 +421,52 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.51545801297722</v>
+        <v>24.51231374399272</v>
       </c>
       <c r="C2">
-        <v>19.5364528743202</v>
+        <v>20.27265170278225</v>
       </c>
       <c r="D2">
-        <v>7.378287794504397</v>
+        <v>7.596469975377349</v>
       </c>
       <c r="E2">
-        <v>12.15992923499422</v>
+        <v>12.23998523778037</v>
       </c>
       <c r="F2">
-        <v>27.33957944553374</v>
+        <v>26.28944562056529</v>
       </c>
       <c r="G2">
-        <v>32.67258670148207</v>
+        <v>30.24142315249157</v>
       </c>
       <c r="H2">
-        <v>2.098455131445884</v>
+        <v>2.069515907948171</v>
       </c>
       <c r="J2">
-        <v>10.65356727895663</v>
+        <v>10.76643334604241</v>
       </c>
       <c r="K2">
-        <v>13.79084138542781</v>
+        <v>12.98772040967126</v>
       </c>
       <c r="L2">
-        <v>7.563241555962088</v>
+        <v>11.76578195644109</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>7.547885698692504</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.527010332159537</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,46 +477,52 @@
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.87445881323437</v>
+        <v>22.89137988287245</v>
       </c>
       <c r="C3">
-        <v>18.22493464509924</v>
+        <v>18.85094400695539</v>
       </c>
       <c r="D3">
-        <v>7.015458182419679</v>
+        <v>7.218249680372288</v>
       </c>
       <c r="E3">
-        <v>11.55310761783332</v>
+        <v>11.64326343881003</v>
       </c>
       <c r="F3">
-        <v>26.46727354125896</v>
+        <v>25.55308434944856</v>
       </c>
       <c r="G3">
-        <v>31.4404953877016</v>
+        <v>29.2606260144549</v>
       </c>
       <c r="H3">
-        <v>1.781300168251167</v>
+        <v>1.778818193037411</v>
       </c>
       <c r="J3">
-        <v>10.55489364815159</v>
+        <v>10.66857868464461</v>
       </c>
       <c r="K3">
-        <v>13.93762407356203</v>
+        <v>13.20733568660947</v>
       </c>
       <c r="L3">
-        <v>7.305216327056449</v>
+        <v>11.98402372556459</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>7.630575109462069</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.284670167262466</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -521,46 +533,52 @@
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.80743814388878</v>
+        <v>21.83668976674399</v>
       </c>
       <c r="C4">
-        <v>17.37235966963268</v>
+        <v>17.92597712267194</v>
       </c>
       <c r="D4">
-        <v>6.783332293037334</v>
+        <v>6.976621645263068</v>
       </c>
       <c r="E4">
-        <v>11.16484995701398</v>
+        <v>11.261704369355</v>
       </c>
       <c r="F4">
-        <v>25.93824306949023</v>
+        <v>25.10603169984405</v>
       </c>
       <c r="G4">
-        <v>30.69763028314613</v>
+        <v>28.67681408284304</v>
       </c>
       <c r="H4">
-        <v>1.580551782587945</v>
+        <v>1.594574971075877</v>
       </c>
       <c r="J4">
-        <v>10.50243772304693</v>
+        <v>10.61180961705135</v>
       </c>
       <c r="K4">
-        <v>14.04387948761984</v>
+        <v>13.3533726004959</v>
       </c>
       <c r="L4">
-        <v>7.141862811814076</v>
+        <v>12.12238369766749</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>7.717166161941276</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.131290081927319</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -571,46 +589,52 @@
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.3575773877429</v>
+        <v>21.39188186261009</v>
       </c>
       <c r="C5">
-        <v>17.01295860418228</v>
+        <v>17.53588141724518</v>
       </c>
       <c r="D5">
-        <v>6.68643974617321</v>
+        <v>6.875870557918454</v>
       </c>
       <c r="E5">
-        <v>11.00275746281703</v>
+        <v>11.10248904407715</v>
       </c>
       <c r="F5">
-        <v>25.72450940542336</v>
+        <v>24.92524884178442</v>
       </c>
       <c r="G5">
-        <v>30.39865253063154</v>
+        <v>28.44364172468136</v>
       </c>
       <c r="H5">
-        <v>1.625504014368981</v>
+        <v>1.604166324537701</v>
       </c>
       <c r="J5">
-        <v>10.48303665484417</v>
+        <v>10.58948359206559</v>
       </c>
       <c r="K5">
-        <v>14.09097431169416</v>
+        <v>13.41552572061393</v>
       </c>
       <c r="L5">
-        <v>7.074085543467433</v>
+        <v>12.1798849990865</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>7.760911225750212</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.06766543702834</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -621,46 +645,52 @@
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.28196721549932</v>
+        <v>21.31711319360395</v>
       </c>
       <c r="C6">
-        <v>16.9525552057344</v>
+        <v>17.47030892257202</v>
       </c>
       <c r="D6">
-        <v>6.670213675426623</v>
+        <v>6.859005452568353</v>
       </c>
       <c r="E6">
-        <v>10.97561039594518</v>
+        <v>11.07582931400267</v>
       </c>
       <c r="F6">
-        <v>25.68913682350766</v>
+        <v>24.89531772604263</v>
       </c>
       <c r="G6">
-        <v>30.34924317473509</v>
+        <v>28.40521256553182</v>
       </c>
       <c r="H6">
-        <v>1.639785742031926</v>
+        <v>1.617286297880573</v>
       </c>
       <c r="J6">
-        <v>10.47993232848846</v>
+        <v>10.58582440315474</v>
       </c>
       <c r="K6">
-        <v>14.09901622499066</v>
+        <v>13.42600101830248</v>
       </c>
       <c r="L6">
-        <v>7.062759085793968</v>
+        <v>12.18950125288747</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>7.768669155382383</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.057033907323508</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -671,46 +701,52 @@
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.80143218809671</v>
+        <v>21.83034502448121</v>
       </c>
       <c r="C7">
-        <v>17.36756122589247</v>
+        <v>17.90944740984846</v>
       </c>
       <c r="D7">
-        <v>6.782034799700118</v>
+        <v>6.98178907976239</v>
       </c>
       <c r="E7">
-        <v>11.16267950841253</v>
+        <v>11.26194641758259</v>
       </c>
       <c r="F7">
-        <v>25.93535282104931</v>
+        <v>25.07325231914627</v>
       </c>
       <c r="G7">
-        <v>30.69358257248539</v>
+        <v>28.74286452193976</v>
       </c>
       <c r="H7">
-        <v>1.579433897710218</v>
+        <v>1.592700806631842</v>
       </c>
       <c r="J7">
-        <v>10.50216817002228</v>
+        <v>10.55642366683323</v>
       </c>
       <c r="K7">
-        <v>14.04449959370363</v>
+        <v>13.3403090617497</v>
       </c>
       <c r="L7">
-        <v>7.140953598478668</v>
+        <v>12.11140786053774</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>7.708386945047879</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.129369686134771</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -721,46 +757,52 @@
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.96192031011641</v>
+        <v>23.96443405291247</v>
       </c>
       <c r="C8">
-        <v>19.09401087837443</v>
+        <v>19.75853357928365</v>
       </c>
       <c r="D8">
-        <v>7.255150915656588</v>
+        <v>7.488549663208126</v>
       </c>
       <c r="E8">
-        <v>11.95398222583572</v>
+        <v>12.04496683956995</v>
       </c>
       <c r="F8">
-        <v>27.03756107216106</v>
+        <v>25.93766876785884</v>
       </c>
       <c r="G8">
-        <v>32.24511366526634</v>
+        <v>30.12128949053461</v>
       </c>
       <c r="H8">
-        <v>1.990322434619404</v>
+        <v>1.967828763580775</v>
       </c>
       <c r="J8">
-        <v>10.617816576452</v>
+        <v>10.55258110968248</v>
       </c>
       <c r="K8">
-        <v>13.83794243693671</v>
+        <v>13.01512706258846</v>
       </c>
       <c r="L8">
-        <v>7.475312412777805</v>
+        <v>11.80430250449995</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>7.533571314693615</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.441081405574049</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -771,46 +813,52 @@
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.73145230526541</v>
+        <v>27.68267237066774</v>
       </c>
       <c r="C9">
-        <v>22.10790767480108</v>
+        <v>23.01687975437501</v>
       </c>
       <c r="D9">
-        <v>8.107141015463986</v>
+        <v>8.380949324402581</v>
       </c>
       <c r="E9">
-        <v>13.37947285287337</v>
+        <v>13.44839616184966</v>
       </c>
       <c r="F9">
-        <v>29.24307431910012</v>
+        <v>27.78053892472453</v>
       </c>
       <c r="G9">
-        <v>35.38325096185925</v>
+        <v>32.70712078409915</v>
       </c>
       <c r="H9">
-        <v>2.750365805269895</v>
+        <v>2.66248077041129</v>
       </c>
       <c r="J9">
-        <v>10.91204365499078</v>
+        <v>10.77233943124561</v>
       </c>
       <c r="K9">
-        <v>13.57333548404435</v>
+        <v>12.52494356883221</v>
       </c>
       <c r="L9">
-        <v>8.090920418026325</v>
+        <v>11.2784386538607</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>7.530451459296464</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>8.018768271968217</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -821,46 +869,52 @@
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.21770746736646</v>
+        <v>30.1281861334947</v>
       </c>
       <c r="C10">
-        <v>24.05406191010606</v>
+        <v>25.05085395117677</v>
       </c>
       <c r="D10">
-        <v>8.618975511648383</v>
+        <v>8.944167252831091</v>
       </c>
       <c r="E10">
-        <v>14.13647021948194</v>
+        <v>14.19760082001786</v>
       </c>
       <c r="F10">
-        <v>30.58564672710923</v>
+        <v>28.73682612472646</v>
       </c>
       <c r="G10">
-        <v>37.3357868830233</v>
+        <v>34.68277715948415</v>
       </c>
       <c r="H10">
-        <v>3.263895908417366</v>
+        <v>3.125990716884107</v>
       </c>
       <c r="J10">
-        <v>11.0908958815835</v>
+        <v>10.58861769820008</v>
       </c>
       <c r="K10">
-        <v>13.34931365765369</v>
+        <v>12.05782314114415</v>
       </c>
       <c r="L10">
-        <v>8.405849496642979</v>
+        <v>10.79627938574028</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>7.573245286279337</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.303362566226676</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -871,46 +925,52 @@
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.24966173611</v>
+        <v>31.14566772715142</v>
       </c>
       <c r="C11">
-        <v>24.49352864768763</v>
+        <v>25.27935064850362</v>
       </c>
       <c r="D11">
-        <v>8.274961666567854</v>
+        <v>8.611913185528747</v>
       </c>
       <c r="E11">
-        <v>12.69214388996816</v>
+        <v>12.73188571719273</v>
       </c>
       <c r="F11">
-        <v>28.65261921279416</v>
+        <v>26.65339093989236</v>
       </c>
       <c r="G11">
-        <v>34.8175776822097</v>
+        <v>33.208047869641</v>
       </c>
       <c r="H11">
-        <v>3.894291903864358</v>
+        <v>3.762707679603049</v>
       </c>
       <c r="J11">
-        <v>10.47065253738993</v>
+        <v>9.475605418472769</v>
       </c>
       <c r="K11">
-        <v>12.12729142082835</v>
+        <v>10.89918312016378</v>
       </c>
       <c r="L11">
-        <v>7.633741848596911</v>
+        <v>10.00017592490839</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>6.721842347338393</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>7.520106567711688</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -921,46 +981,52 @@
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.61664019933246</v>
+        <v>31.5099236376529</v>
       </c>
       <c r="C12">
-        <v>24.46648736080929</v>
+        <v>25.08493674622873</v>
       </c>
       <c r="D12">
-        <v>7.879638971451389</v>
+        <v>8.194312527280569</v>
       </c>
       <c r="E12">
-        <v>11.37973219196424</v>
+        <v>11.38898862349586</v>
       </c>
       <c r="F12">
-        <v>26.70406645673715</v>
+        <v>24.75807944504189</v>
       </c>
       <c r="G12">
-        <v>32.2295497364994</v>
+        <v>31.29056872038072</v>
       </c>
       <c r="H12">
-        <v>4.890784208516235</v>
+        <v>4.785704679371898</v>
       </c>
       <c r="J12">
-        <v>9.90017281589175</v>
+        <v>8.787800716201964</v>
       </c>
       <c r="K12">
-        <v>11.15352829229819</v>
+        <v>10.10463056234142</v>
       </c>
       <c r="L12">
-        <v>7.000552251771507</v>
+        <v>9.515165331224901</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>6.021081739625333</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.887669495726305</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -971,46 +1037,52 @@
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.50681658815724</v>
+        <v>31.40686311938313</v>
       </c>
       <c r="C13">
-        <v>24.07877044419532</v>
+        <v>24.5697765327175</v>
       </c>
       <c r="D13">
-        <v>7.411524521314199</v>
+        <v>7.664661876022347</v>
       </c>
       <c r="E13">
-        <v>10.08755031380755</v>
+        <v>10.05503162655025</v>
       </c>
       <c r="F13">
-        <v>24.5840400569776</v>
+        <v>22.91837713621219</v>
       </c>
       <c r="G13">
-        <v>29.35138162235512</v>
+        <v>28.69541830040206</v>
       </c>
       <c r="H13">
-        <v>6.023107960684674</v>
+        <v>5.945392114148945</v>
       </c>
       <c r="J13">
-        <v>9.329539318703619</v>
+        <v>8.455573380758919</v>
       </c>
       <c r="K13">
-        <v>10.3295430861811</v>
+        <v>9.574589234740218</v>
       </c>
       <c r="L13">
-        <v>6.452084993909445</v>
+        <v>9.227391613227107</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>5.43417444293713</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>6.350955404743626</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -1021,46 +1093,52 @@
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.21353566979944</v>
+        <v>31.1223434712001</v>
       </c>
       <c r="C14">
-        <v>23.63920024539087</v>
+        <v>24.05608363087051</v>
       </c>
       <c r="D14">
-        <v>7.047552652662145</v>
+        <v>7.241274852749171</v>
       </c>
       <c r="E14">
-        <v>9.21982149766559</v>
+        <v>9.155259773839132</v>
       </c>
       <c r="F14">
-        <v>23.01031322043536</v>
+        <v>21.6413681136348</v>
       </c>
       <c r="G14">
-        <v>27.17470126009595</v>
+        <v>26.5494365759755</v>
       </c>
       <c r="H14">
-        <v>6.870230095571032</v>
+        <v>6.809348198117411</v>
       </c>
       <c r="J14">
-        <v>8.93276248153442</v>
+        <v>8.360380399818673</v>
       </c>
       <c r="K14">
-        <v>9.845906014213293</v>
+        <v>9.329267360401358</v>
       </c>
       <c r="L14">
-        <v>6.136560560826243</v>
+        <v>9.106050564351072</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>5.091214830353316</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.048201274692875</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1071,46 +1149,52 @@
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.03882431720843</v>
+        <v>30.95175475636335</v>
       </c>
       <c r="C15">
-        <v>23.45324206603049</v>
+        <v>23.85873701141964</v>
       </c>
       <c r="D15">
-        <v>6.942161394077348</v>
+        <v>7.114878155732736</v>
       </c>
       <c r="E15">
-        <v>9.004189403503382</v>
+        <v>8.932162400329428</v>
       </c>
       <c r="F15">
-        <v>22.59327139136368</v>
+        <v>21.33844854493205</v>
       </c>
       <c r="G15">
-        <v>26.58303547878513</v>
+        <v>25.89358084861649</v>
       </c>
       <c r="H15">
-        <v>7.061255130340173</v>
+        <v>7.005141917455779</v>
       </c>
       <c r="J15">
-        <v>8.83816621464887</v>
+        <v>8.393995563134528</v>
       </c>
       <c r="K15">
-        <v>9.762929470748299</v>
+        <v>9.316066527367758</v>
       </c>
       <c r="L15">
-        <v>6.066535830566206</v>
+        <v>9.104078154234582</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>5.035654938008517</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.983089091619795</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1121,46 +1205,52 @@
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.04146599066445</v>
+        <v>29.97324502536694</v>
       </c>
       <c r="C16">
-        <v>22.7071979268631</v>
+        <v>23.16861447982737</v>
       </c>
       <c r="D16">
-        <v>6.795161196878888</v>
+        <v>6.91512209999318</v>
       </c>
       <c r="E16">
-        <v>8.871738115418339</v>
+        <v>8.805518912581304</v>
       </c>
       <c r="F16">
-        <v>22.35577703132959</v>
+        <v>21.44447678597114</v>
       </c>
       <c r="G16">
-        <v>26.14358614924132</v>
+        <v>24.86546040408282</v>
       </c>
       <c r="H16">
-        <v>6.757422081425381</v>
+        <v>6.712871574620715</v>
       </c>
       <c r="J16">
-        <v>8.869550956092541</v>
+        <v>8.89632370962048</v>
       </c>
       <c r="K16">
-        <v>10.05283240935876</v>
+        <v>9.715601141671867</v>
       </c>
       <c r="L16">
-        <v>6.024110988374043</v>
+        <v>9.352386013200215</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>5.268251398116671</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.956953711618032</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1171,46 +1261,52 @@
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.42240948610509</v>
+        <v>29.36357475181677</v>
       </c>
       <c r="C17">
-        <v>22.36817457065282</v>
+        <v>22.90142480787365</v>
       </c>
       <c r="D17">
-        <v>6.881354432650179</v>
+        <v>6.99859958919129</v>
       </c>
       <c r="E17">
-        <v>9.226597231704375</v>
+        <v>9.179548787051264</v>
       </c>
       <c r="F17">
-        <v>23.0348067532206</v>
+        <v>22.18961040281606</v>
       </c>
       <c r="G17">
-        <v>27.01818198105778</v>
+        <v>25.36305833610443</v>
       </c>
       <c r="H17">
-        <v>6.018694305351039</v>
+        <v>5.975878457636155</v>
       </c>
       <c r="J17">
-        <v>9.105339364218606</v>
+        <v>9.29393849587507</v>
       </c>
       <c r="K17">
-        <v>10.51502622996872</v>
+        <v>10.14129165065394</v>
       </c>
       <c r="L17">
-        <v>6.145742218327556</v>
+        <v>9.622021107270406</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>5.599928912022458</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.084288448386179</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1221,46 +1317,52 @@
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.073404270872</v>
+        <v>29.01744123551093</v>
       </c>
       <c r="C18">
-        <v>22.35246484274224</v>
+        <v>22.99806702681093</v>
       </c>
       <c r="D18">
-        <v>7.183800003073926</v>
+        <v>7.330064569944367</v>
       </c>
       <c r="E18">
-        <v>10.13101468055841</v>
+        <v>10.11212441503658</v>
       </c>
       <c r="F18">
-        <v>24.57211015994582</v>
+        <v>23.62019965100068</v>
       </c>
       <c r="G18">
-        <v>29.10154778581207</v>
+        <v>27.07563011166124</v>
       </c>
       <c r="H18">
-        <v>4.878856016156503</v>
+        <v>4.828025502330094</v>
       </c>
       <c r="J18">
-        <v>9.542836585259019</v>
+        <v>9.737695965809994</v>
       </c>
       <c r="K18">
-        <v>11.2038205808915</v>
+        <v>10.68679186185503</v>
       </c>
       <c r="L18">
-        <v>6.501516322528285</v>
+        <v>9.976375888744366</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>6.077482829742179</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>6.438572814858573</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1271,46 +1373,52 @@
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.97443036388043</v>
+        <v>28.91573183644047</v>
       </c>
       <c r="C19">
-        <v>22.599020225972</v>
+        <v>23.38701967982968</v>
       </c>
       <c r="D19">
-        <v>7.63970739944646</v>
+        <v>7.834053140092767</v>
       </c>
       <c r="E19">
-        <v>11.4956605520258</v>
+        <v>11.50815911463036</v>
       </c>
       <c r="F19">
-        <v>26.6746316245059</v>
+        <v>25.5098831835831</v>
       </c>
       <c r="G19">
-        <v>31.96613284584717</v>
+        <v>29.54742450252672</v>
       </c>
       <c r="H19">
-        <v>3.70617950913597</v>
+        <v>3.633739383871636</v>
       </c>
       <c r="J19">
-        <v>10.11472936370543</v>
+        <v>10.22798658268785</v>
       </c>
       <c r="K19">
-        <v>12.07055756965626</v>
+        <v>11.3343016726557</v>
       </c>
       <c r="L19">
-        <v>7.113610053361061</v>
+        <v>10.40201369908284</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>6.669724798304263</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.043790057537154</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1321,46 +1429,52 @@
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.58313553338358</v>
+        <v>29.50576854567583</v>
       </c>
       <c r="C20">
-        <v>23.55519889755629</v>
+        <v>24.56018448424069</v>
       </c>
       <c r="D20">
-        <v>8.484322543722374</v>
+        <v>8.776793137768578</v>
       </c>
       <c r="E20">
-        <v>13.93181529984816</v>
+        <v>13.9877487354931</v>
       </c>
       <c r="F20">
-        <v>30.21759405370672</v>
+        <v>28.56495770719798</v>
       </c>
       <c r="G20">
-        <v>36.8001810304015</v>
+        <v>33.92882093681037</v>
       </c>
       <c r="H20">
-        <v>3.128665993611954</v>
+        <v>3.006307633201081</v>
       </c>
       <c r="J20">
-        <v>11.03703566028589</v>
+        <v>10.81553485726636</v>
       </c>
       <c r="K20">
-        <v>13.39477597410693</v>
+        <v>12.22030034856059</v>
       </c>
       <c r="L20">
-        <v>8.31928017595941</v>
+        <v>10.94936925317598</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>7.589326474857135</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.227844800578126</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1371,46 +1485,52 @@
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.41232583967984</v>
+        <v>31.29503196198172</v>
       </c>
       <c r="C21">
-        <v>25.05310453306375</v>
+        <v>25.99086975572504</v>
       </c>
       <c r="D21">
-        <v>8.96542353056077</v>
+        <v>9.406371461501514</v>
       </c>
       <c r="E21">
-        <v>14.81785956278767</v>
+        <v>14.91096761732947</v>
       </c>
       <c r="F21">
-        <v>31.7102119149048</v>
+        <v>29.22880670004958</v>
       </c>
       <c r="G21">
-        <v>38.92659508095828</v>
+        <v>37.10274675620299</v>
       </c>
       <c r="H21">
-        <v>3.547801787568347</v>
+        <v>3.372839572827196</v>
       </c>
       <c r="J21">
-        <v>11.31691113012918</v>
+        <v>9.845143711462381</v>
       </c>
       <c r="K21">
-        <v>13.46761748370928</v>
+        <v>11.77797566420931</v>
       </c>
       <c r="L21">
-        <v>8.72692082884234</v>
+        <v>10.52428160201422</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>7.587870310491909</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.594873639664034</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1421,46 +1541,52 @@
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.55673506405864</v>
+        <v>32.41298805428809</v>
       </c>
       <c r="C22">
-        <v>25.96926337897905</v>
+        <v>26.84408979023741</v>
       </c>
       <c r="D22">
-        <v>9.236766954839776</v>
+        <v>9.77558551833566</v>
       </c>
       <c r="E22">
-        <v>15.27331277564682</v>
+        <v>15.39119388434978</v>
       </c>
       <c r="F22">
-        <v>32.53513665739845</v>
+        <v>29.50417149111759</v>
       </c>
       <c r="G22">
-        <v>40.11702411309061</v>
+        <v>39.06302226450926</v>
       </c>
       <c r="H22">
-        <v>3.807326014765601</v>
+        <v>3.598811321803814</v>
       </c>
       <c r="J22">
-        <v>11.46695831943789</v>
+        <v>9.146960357679017</v>
       </c>
       <c r="K22">
-        <v>13.47207929916621</v>
+        <v>11.43180273932522</v>
       </c>
       <c r="L22">
-        <v>8.930999330205216</v>
+        <v>10.21352261281223</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>7.556916633704877</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.772770826395185</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1471,46 +1597,52 @@
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.95034868277347</v>
+        <v>31.82156286978172</v>
       </c>
       <c r="C23">
-        <v>25.48379023362385</v>
+        <v>26.41380506617017</v>
       </c>
       <c r="D23">
-        <v>9.09274290817576</v>
+        <v>9.56567265440351</v>
       </c>
       <c r="E23">
-        <v>15.0315192559566</v>
+        <v>15.13086857805682</v>
       </c>
       <c r="F23">
-        <v>32.09475055508832</v>
+        <v>29.42342490426138</v>
       </c>
       <c r="G23">
-        <v>39.48119837367496</v>
+        <v>37.86510178125582</v>
       </c>
       <c r="H23">
-        <v>3.669112536676117</v>
+        <v>3.479952283422003</v>
       </c>
       <c r="J23">
-        <v>11.38601535175943</v>
+        <v>9.640482379126958</v>
       </c>
       <c r="K23">
-        <v>13.4673181494447</v>
+        <v>11.65204073881099</v>
       </c>
       <c r="L23">
-        <v>8.822506477529402</v>
+        <v>10.4001510183655</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>7.604083409381081</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.680319549349811</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1521,46 +1653,52 @@
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.55623558610226</v>
+        <v>29.47871966033314</v>
       </c>
       <c r="C24">
-        <v>23.56769779913647</v>
+        <v>24.58753708773591</v>
       </c>
       <c r="D24">
-        <v>8.529730542846712</v>
+        <v>8.82635428389715</v>
       </c>
       <c r="E24">
-        <v>14.0872966006988</v>
+        <v>14.14590761071617</v>
       </c>
       <c r="F24">
-        <v>30.42961808790904</v>
+        <v>28.76010610370186</v>
       </c>
       <c r="G24">
-        <v>37.08392333152097</v>
+        <v>34.16491043467472</v>
       </c>
       <c r="H24">
-        <v>3.138685974173626</v>
+        <v>3.01592998712615</v>
       </c>
       <c r="J24">
-        <v>11.09801147016394</v>
+        <v>10.87559945879352</v>
       </c>
       <c r="K24">
-        <v>13.49944978159813</v>
+        <v>12.30351899176946</v>
       </c>
       <c r="L24">
-        <v>8.402197391069608</v>
+        <v>11.00634839973976</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>7.658512207348228</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.310305320986316</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1571,46 +1709,52 @@
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.76105838463237</v>
+        <v>26.72692244782595</v>
       </c>
       <c r="C25">
-        <v>21.33182934815055</v>
+        <v>22.19217739551222</v>
       </c>
       <c r="D25">
-        <v>7.884950551365026</v>
+        <v>8.139946154414833</v>
       </c>
       <c r="E25">
-        <v>13.00755938721402</v>
+        <v>13.0792284486526</v>
       </c>
       <c r="F25">
-        <v>28.64274847219623</v>
+        <v>27.31807512658802</v>
       </c>
       <c r="G25">
-        <v>34.52570367118938</v>
+        <v>31.90354925456681</v>
       </c>
       <c r="H25">
-        <v>2.549350246427216</v>
+        <v>2.480078993613593</v>
       </c>
       <c r="J25">
-        <v>10.82482354605087</v>
+        <v>10.78485580928344</v>
       </c>
       <c r="K25">
-        <v>13.62806465999331</v>
+        <v>12.66553708112785</v>
       </c>
       <c r="L25">
-        <v>7.928786897040927</v>
+        <v>11.43119064528642</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>7.512596279942461</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.86796987063727</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -1619,6 +1763,12 @@
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
